--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6441108926\Desktop\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FAADDBB-D395-412D-B603-B3E7A00CF5B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079E4665-908E-4A23-9C78-88FA362AF833}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{0D06BBF3-EF89-46B2-9DA0-857E67B0ED41}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>จำนวนนักท่องเที่ยว ปี 2566P</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Country of</t>
   </si>
   <si>
-    <t>2023p</t>
-  </si>
-  <si>
     <t>Nationality</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>Feb</t>
   </si>
   <si>
-    <t>Mar R</t>
-  </si>
-  <si>
     <t>Apr</t>
   </si>
   <si>
@@ -409,6 +403,9 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mar </t>
   </si>
 </sst>
 </file>
@@ -1401,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066CDC96-FEC8-49AE-B858-5E5A6906721C}">
   <dimension ref="A1:N116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1466,8 +1463,8 @@
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>2</v>
+      <c r="B4" s="7">
+        <v>2023</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1484,51 +1481,51 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="M5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="N5" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1">
       <c r="A6" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="13">
         <v>1281532</v>
@@ -1572,7 +1569,7 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" thickTop="1">
       <c r="A7" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="16">
         <v>664990</v>
@@ -1616,7 +1613,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="19">
         <v>748</v>
@@ -1660,7 +1657,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="22">
         <v>46235</v>
@@ -1704,7 +1701,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="19">
         <v>45410</v>
@@ -1748,7 +1745,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="22">
         <v>85353</v>
@@ -1792,7 +1789,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="19">
         <v>288745</v>
@@ -1836,7 +1833,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="22">
         <v>30764</v>
@@ -1880,7 +1877,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="19">
         <v>27440</v>
@@ -1924,7 +1921,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="22">
         <v>69106</v>
@@ -1968,7 +1965,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" s="19">
         <v>71189</v>
@@ -2012,7 +2009,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="25">
         <v>422938</v>
@@ -2056,7 +2053,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="19">
         <v>91841</v>
@@ -2100,7 +2097,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" s="22">
         <v>59816</v>
@@ -2144,7 +2141,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" s="19">
         <v>46336</v>
@@ -2188,7 +2185,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" s="22">
         <v>0</v>
@@ -2232,7 +2229,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" s="19">
         <v>169462</v>
@@ -2276,7 +2273,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23" s="22">
         <v>853</v>
@@ -2320,7 +2317,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" s="19">
         <v>5138</v>
@@ -2364,7 +2361,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25" s="22">
         <v>49492</v>
@@ -2408,7 +2405,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" s="28">
         <v>130381</v>
@@ -2452,7 +2449,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" s="22">
         <v>10724</v>
@@ -2496,7 +2493,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" s="19">
         <v>3784</v>
@@ -2540,7 +2537,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B29" s="22">
         <v>103316</v>
@@ -2584,7 +2581,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B30" s="19">
         <v>2173</v>
@@ -2628,7 +2625,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="30">
         <v>1452</v>
@@ -2672,7 +2669,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B32" s="19">
         <v>1957</v>
@@ -2716,7 +2713,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33" s="30">
         <v>5441</v>
@@ -2760,7 +2757,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B34" s="19">
         <v>1534</v>
@@ -2804,7 +2801,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B35" s="33">
         <v>47</v>
@@ -2848,7 +2845,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B36" s="28">
         <v>63176</v>
@@ -2892,7 +2889,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B37" s="30">
         <v>57315</v>
@@ -2936,7 +2933,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B38" s="19">
         <v>5558</v>
@@ -2980,7 +2977,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B39" s="36">
         <v>303</v>
@@ -3024,7 +3021,7 @@
     </row>
     <row r="40" spans="1:14" ht="15.75" thickBot="1">
       <c r="A40" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B40" s="39">
         <v>705869</v>
@@ -3068,7 +3065,7 @@
     </row>
     <row r="41" spans="1:14" ht="15.75" thickTop="1">
       <c r="A41" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B41" s="41">
         <v>158894</v>
@@ -3112,7 +3109,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B42" s="19">
         <v>18539</v>
@@ -3156,7 +3153,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B43" s="30">
         <v>14304</v>
@@ -3200,7 +3197,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B44" s="19">
         <v>403</v>
@@ -3244,7 +3241,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B45" s="30">
         <v>5950</v>
@@ -3288,7 +3285,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B46" s="19">
         <v>11911</v>
@@ -3332,7 +3329,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B47" s="30">
         <v>30972</v>
@@ -3376,7 +3373,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B48" s="19">
         <v>76815</v>
@@ -3420,7 +3417,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B49" s="43">
         <v>190527</v>
@@ -3464,7 +3461,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B50" s="19">
         <v>11680</v>
@@ -3508,7 +3505,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B51" s="30">
         <v>7678</v>
@@ -3552,7 +3549,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B52" s="19">
         <v>59925</v>
@@ -3596,7 +3593,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B53" s="30">
         <v>73045</v>
@@ -3640,7 +3637,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B54" s="19">
         <v>348</v>
@@ -3684,7 +3681,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B55" s="30">
         <v>21012</v>
@@ -3728,7 +3725,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B56" s="19">
         <v>16839</v>
@@ -3772,7 +3769,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B57" s="43">
         <v>284937</v>
@@ -3816,7 +3813,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B58" s="19">
         <v>1311</v>
@@ -3860,7 +3857,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B59" s="30">
         <v>1915</v>
@@ -3904,7 +3901,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B60" s="19">
         <v>7034</v>
@@ -3948,7 +3945,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B61" s="30">
         <v>2784</v>
@@ -3992,7 +3989,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B62" s="19">
         <v>4530</v>
@@ -4036,7 +4033,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B63" s="30">
         <v>26656</v>
@@ -4080,7 +4077,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B64" s="19">
         <v>907</v>
@@ -4124,7 +4121,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B65" s="30">
         <v>1413</v>
@@ -4168,7 +4165,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B66" s="19">
         <v>2658</v>
@@ -4212,7 +4209,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B67" s="45">
         <v>16129</v>
@@ -4256,7 +4253,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B68" s="47">
         <v>4592</v>
@@ -4300,7 +4297,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B69" s="49">
         <v>202759</v>
@@ -4344,7 +4341,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B70" s="47">
         <v>2657</v>
@@ -4388,7 +4385,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B71" s="51">
         <v>4652</v>
@@ -4432,7 +4429,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B72" s="53">
         <v>4940</v>
@@ -4476,7 +4473,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B73" s="55">
         <v>69937</v>
@@ -4520,7 +4517,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B74" s="53">
         <v>900</v>
@@ -4564,7 +4561,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B75" s="57">
         <v>274</v>
@@ -4608,7 +4605,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B76" s="53">
         <v>2136</v>
@@ -4652,7 +4649,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B77" s="57">
         <v>24321</v>
@@ -4696,7 +4693,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B78" s="53">
         <v>21695</v>
@@ -4740,7 +4737,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B79" s="57">
         <v>2809</v>
@@ -4784,7 +4781,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B80" s="53">
         <v>1324</v>
@@ -4828,7 +4825,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B81" s="57">
         <v>1240</v>
@@ -4872,7 +4869,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B82" s="53">
         <v>8488</v>
@@ -4916,7 +4913,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B83" s="57">
         <v>6750</v>
@@ -4960,7 +4957,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="59" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B84" s="60">
         <v>1574</v>
@@ -5004,7 +5001,7 @@
     </row>
     <row r="85" spans="1:14" ht="15.75" thickBot="1">
       <c r="A85" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B85" s="62">
         <v>118891</v>
@@ -5048,7 +5045,7 @@
     </row>
     <row r="86" spans="1:14" ht="15.75" thickTop="1">
       <c r="A86" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B86" s="57">
         <v>23744</v>
@@ -5092,7 +5089,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B87" s="53">
         <v>1616</v>
@@ -5136,7 +5133,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B88" s="57">
         <v>82470</v>
@@ -5180,7 +5177,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B89" s="53">
         <v>2889</v>
@@ -5224,7 +5221,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B90" s="57">
         <v>5186</v>
@@ -5268,7 +5265,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B91" s="53">
         <v>1253</v>
@@ -5312,7 +5309,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B92" s="57">
         <v>470</v>
@@ -5356,7 +5353,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B93" s="53">
         <v>458</v>
@@ -5400,7 +5397,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B94" s="57">
         <v>137</v>
@@ -5444,7 +5441,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B95" s="64">
         <v>668</v>
@@ -5488,7 +5485,7 @@
     </row>
     <row r="96" spans="1:14" ht="15.75" thickBot="1">
       <c r="A96" s="38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B96" s="62">
         <v>30556</v>
@@ -5532,7 +5529,7 @@
     </row>
     <row r="97" spans="1:14" ht="15.75" thickTop="1">
       <c r="A97" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B97" s="66">
         <v>1339</v>
@@ -5576,7 +5573,7 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B98" s="53">
         <v>904</v>
@@ -5620,7 +5617,7 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B99" s="57">
         <v>329</v>
@@ -5664,7 +5661,7 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B100" s="53">
         <v>665</v>
@@ -5708,7 +5705,7 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B101" s="57">
         <v>7099</v>
@@ -5752,7 +5749,7 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B102" s="53">
         <v>169</v>
@@ -5796,7 +5793,7 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B103" s="57">
         <v>5407</v>
@@ -5840,7 +5837,7 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B104" s="53">
         <v>2404</v>
@@ -5884,7 +5881,7 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B105" s="57">
         <v>7462</v>
@@ -5928,7 +5925,7 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B106" s="53">
         <v>4059</v>
@@ -5972,7 +5969,7 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B107" s="57">
         <v>368</v>
@@ -6016,7 +6013,7 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B108" s="68">
         <v>351</v>
@@ -6060,7 +6057,7 @@
     </row>
     <row r="109" spans="1:14" ht="15.75" thickBot="1">
       <c r="A109" s="38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B109" s="62">
         <v>8100</v>
@@ -6104,7 +6101,7 @@
     </row>
     <row r="110" spans="1:14" ht="15.75" thickTop="1">
       <c r="A110" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B110" s="57">
         <v>514</v>
@@ -6148,7 +6145,7 @@
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B111" s="53">
         <v>4125</v>
@@ -6192,7 +6189,7 @@
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B112" s="57">
         <v>787</v>
@@ -6236,7 +6233,7 @@
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B113" s="53">
         <v>198</v>
@@ -6280,7 +6277,7 @@
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B114" s="57">
         <v>765</v>
@@ -6324,7 +6321,7 @@
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B115" s="68">
         <v>1711</v>
@@ -6368,7 +6365,7 @@
     </row>
     <row r="116" spans="1:14" ht="15.75" thickBot="1">
       <c r="A116" s="70" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B116" s="71">
         <v>2144948</v>
